--- a/username_pwd.xlsx
+++ b/username_pwd.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8910" windowHeight="5670"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8910" windowHeight="5670" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>vidyagowda.temp1@gmail.com</t>
   </si>
@@ -36,6 +37,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Goa</t>
   </si>
 </sst>
 </file>
@@ -366,7 +379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -401,4 +414,39 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>